--- a/biology/Botanique/Jardin_du_Port-de-l'Arsenal/Jardin_du_Port-de-l'Arsenal.xlsx
+++ b/biology/Botanique/Jardin_du_Port-de-l'Arsenal/Jardin_du_Port-de-l'Arsenal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_du_Port-de-l%27Arsenal</t>
+          <t>Jardin_du_Port-de-l'Arsenal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin du Port-de-l'Arsenal est un espace vert situé dans le 12e arrondissement de Paris, dans le quartier des Quinze-Vingts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_du_Port-de-l%27Arsenal</t>
+          <t>Jardin_du_Port-de-l'Arsenal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est accessible par le 53, boulevard de la Bastille.
 Il est desservi par les lignes 1, 5 et 8 à la station Bastille.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_du_Port-de-l%27Arsenal</t>
+          <t>Jardin_du_Port-de-l'Arsenal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé dans le prolongement du canal Saint-Martin, le bassin de l’Arsenal a été creusé en 1805 à l’emplacement de l’enceinte de Charles V. Une très forte urbanisation ayant ralenti les travaux, il ne fut achevé que 20 ans plus tard, en 1825.
 À l’origine pour un usage commercial, le bassin peut aujourd’hui accueillir 230 plaisanciers. Les jardins reprennent les jardins en terrasses du sud de la France, et suivent le cours du canal. Ainsi les promeneurs peuvent à leur guise s’allonger sur les pelouses face au canal, ou bien se détendre en se baladant sous les pergolas qui, au printemps, se couvrent de fleurs. Ainsi les Parisiens et vacanciers séjournant à la capitale peuvent se délecter à travers l’observation de santolines à feuilles de romarin, des arbres à soie, des céanothes aux fleurs bleues d’été, des kiwis, chèvrefeuilles, bigonnes, etc. Il y a également une statue en bronze du sculpteur Henry Arnold, installée en 1983.
